--- a/Agile-User-Story-Template.xlsx
+++ b/Agile-User-Story-Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carne\OneDrive\Desktop\D49\Records\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carne\Documents\OrionDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEEA210-7D2F-4363-8B67-13CCFA733D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15416A14-605F-4810-A20A-1D9B7C227ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,22 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
-  <si>
-    <t>View a status report from each team member</t>
-  </si>
-  <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>Be reminded of upcoming deadlines</t>
-  </si>
-  <si>
-    <t>Director</t>
-  </si>
-  <si>
-    <t>AGILE USER STORY TEMPLATE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
   <si>
     <t>USER STORY ID</t>
   </si>
@@ -97,9 +82,6 @@
     <t>Low</t>
   </si>
   <si>
-    <t>Stay in the loop</t>
-  </si>
-  <si>
     <t>FINAL STORY</t>
   </si>
   <si>
@@ -118,23 +100,239 @@
     </r>
   </si>
   <si>
-    <t>Ensure the project stays on track</t>
-  </si>
-  <si>
-    <t>Complete my tasks on time</t>
-  </si>
-  <si>
     <t>Project Manager</t>
   </si>
   <si>
-    <t>See the big-picture view of department work</t>
+    <t>OrionDown User Story</t>
+  </si>
+  <si>
+    <t>User (Students)</t>
+  </si>
+  <si>
+    <t>feel like im in the orion capsule</t>
+  </si>
+  <si>
+    <t>feel like I'm really on the mission.</t>
+  </si>
+  <si>
+    <t>have a 360 degree view of the Orion capsule</t>
+  </si>
+  <si>
+    <t>feel like I'm in the Orion capsule</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>find a 360-degree Orion capsule image</t>
+  </si>
+  <si>
+    <t>save time on 3D assets</t>
+  </si>
+  <si>
+    <t>find a pre-built 360-degree Orion capsule model</t>
+  </si>
+  <si>
+    <t>have a series of modules</t>
+  </si>
+  <si>
+    <t>to allow for reusability</t>
+  </si>
+  <si>
+    <t>play the game in VR</t>
+  </si>
+  <si>
+    <t>be fully immersed in the experience</t>
+  </si>
+  <si>
+    <t>have a visible timer</t>
+  </si>
+  <si>
+    <t>manage my time with the puzzles</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>troubleshoot the program easily</t>
+  </si>
+  <si>
+    <t>delay the mission</t>
+  </si>
+  <si>
+    <t>track their location in the mission</t>
+  </si>
+  <si>
+    <t>see clear instructions for the activity</t>
+  </si>
+  <si>
+    <t>run the activity effectively</t>
+  </si>
+  <si>
+    <t>control the difficulty of the activity for each team</t>
+  </si>
+  <si>
+    <t>tailor the difficulty to the abilities of the team</t>
+  </si>
+  <si>
+    <t>time for quality and assurance testing</t>
+  </si>
+  <si>
+    <t>debug the application</t>
+  </si>
+  <si>
+    <t>speed development</t>
+  </si>
+  <si>
+    <t>create a dashboard</t>
+  </si>
+  <si>
+    <t>organize all controls in one place</t>
+  </si>
+  <si>
+    <t>see which puzzles need to be completed</t>
+  </si>
+  <si>
+    <t>see the progress of the team in real time</t>
+  </si>
+  <si>
+    <t>easily track the location of each team</t>
+  </si>
+  <si>
+    <t>plan for the lose condition</t>
+  </si>
+  <si>
+    <t>all outcomes are prepared for</t>
+  </si>
+  <si>
+    <t>a failure message for losing teams</t>
+  </si>
+  <si>
+    <t>assess which teams were successful</t>
+  </si>
+  <si>
+    <t>Investor</t>
+  </si>
+  <si>
+    <t>the Artemis Emergency Abort System</t>
+  </si>
+  <si>
+    <t>to make the activity more immersive</t>
+  </si>
+  <si>
+    <t>create an animation of the Emergency Abort System</t>
+  </si>
+  <si>
+    <t>simulated theme</t>
+  </si>
+  <si>
+    <t>include the Emergency Abort System in the activity</t>
+  </si>
+  <si>
+    <t>fit the mission narrative</t>
+  </si>
+  <si>
+    <t>incorporate a scoring system</t>
+  </si>
+  <si>
+    <t>at least 4 different puzzles</t>
+  </si>
+  <si>
+    <t>allow for variety in the mission</t>
+  </si>
+  <si>
+    <t>at least 4 different variations of each puzzles</t>
+  </si>
+  <si>
+    <t>all for variety across teams and attempts</t>
+  </si>
+  <si>
+    <t>coding organization for future upgrades</t>
+  </si>
+  <si>
+    <t>create a framework that can be used by later developers</t>
+  </si>
+  <si>
+    <t>Over-commented code</t>
+  </si>
+  <si>
+    <t>code is easily understandable to someone unfamiliar with the project</t>
+  </si>
+  <si>
+    <t>use github pages</t>
+  </si>
+  <si>
+    <t>freely host an html-application on the internet</t>
+  </si>
+  <si>
+    <t>1-week sprints</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>see students' progress (passwords)</t>
+  </si>
+  <si>
+    <t>11B</t>
+  </si>
+  <si>
+    <t>9B</t>
+  </si>
+  <si>
+    <t>14A</t>
+  </si>
+  <si>
+    <t>have a module status-indicator board</t>
+  </si>
+  <si>
+    <t>5C</t>
+  </si>
+  <si>
+    <t>15C</t>
+  </si>
+  <si>
+    <t>17D</t>
+  </si>
+  <si>
+    <t>18D</t>
+  </si>
+  <si>
+    <t>19D</t>
+  </si>
+  <si>
+    <t>20D</t>
+  </si>
+  <si>
+    <t>21A</t>
+  </si>
+  <si>
+    <t>22D</t>
+  </si>
+  <si>
+    <t>23C</t>
+  </si>
+  <si>
+    <t>24C</t>
+  </si>
+  <si>
+    <t>25E</t>
+  </si>
+  <si>
+    <t>26E</t>
+  </si>
+  <si>
+    <t>10D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -190,23 +388,8 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color theme="0"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,12 +411,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF40B14B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,12 +452,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -300,19 +476,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
@@ -401,7 +569,59 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -2063,6 +2283,877 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1053"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1054"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1055"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1056"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1057"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1058"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1059"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1060"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1061"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1062"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1063"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1064"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1065"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2466,11 +3557,11 @@
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:P66"/>
+  <dimension ref="B1:O65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29:G29"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2486,7 +3577,7 @@
   <sheetData>
     <row r="1" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="1"/>
@@ -2503,23 +3594,23 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="2:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2531,25 +3622,25 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="2:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6">
-        <v>1</v>
+      <c r="B3" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="1"/>
       <c r="I3" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2559,25 +3650,25 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="2:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
-        <v>2</v>
+      <c r="B4" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="1"/>
       <c r="I4" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2591,21 +3682,21 @@
         <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="1"/>
       <c r="I5" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -2615,15 +3706,25 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="2:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="1"/>
       <c r="I6" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -2633,11 +3734,21 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="2:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2649,11 +3760,21 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="2:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2665,11 +3786,21 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="2:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2681,11 +3812,21 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="2:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="B10" s="6">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -2697,11 +3838,21 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="2:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -2713,11 +3864,21 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="2:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2729,11 +3890,21 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="2:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2745,11 +3916,21 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="2:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="B14" s="6">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2761,11 +3942,21 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="2:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="B15" s="6">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -2777,11 +3968,21 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="2:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2792,12 +3993,22 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="2:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+    <row r="17" spans="2:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -2808,12 +4019,22 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="2:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+    <row r="18" spans="2:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -2824,12 +4045,22 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="2:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+    <row r="19" spans="2:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2840,12 +4071,22 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="2:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+    <row r="20" spans="2:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2856,12 +4097,22 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="2:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+    <row r="21" spans="2:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2872,12 +4123,22 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="2:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+    <row r="22" spans="2:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2888,12 +4149,22 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="2:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+    <row r="23" spans="2:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="G23" s="6"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2904,12 +4175,22 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="2:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+    <row r="24" spans="2:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="G24" s="6"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2920,12 +4201,22 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="2:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+    <row r="25" spans="2:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="G25" s="6"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2936,12 +4227,22 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="2:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+    <row r="26" spans="2:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G26" s="6"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2952,12 +4253,22 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="2:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+    <row r="27" spans="2:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G27" s="6"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2968,13 +4279,23 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="2:16" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+    <row r="28" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="6"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2984,30 +4305,39 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="2:16" s="7" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
+        <v>27</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -3017,13 +4347,13 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -3033,13 +4363,13 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -3050,12 +4380,12 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -3066,12 +4396,12 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -3082,12 +4412,12 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -3098,12 +4428,12 @@
       <c r="O35" s="1"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -3114,12 +4444,12 @@
       <c r="O36" s="1"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -3130,12 +4460,12 @@
       <c r="O37" s="1"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -3146,12 +4476,12 @@
       <c r="O38" s="1"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -3162,12 +4492,12 @@
       <c r="O39" s="1"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -3577,28 +4907,9 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B29:G29"/>
-  </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I6 C3:C27" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I6 C3:C40" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$I$4:$I$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -4159,6 +5470,292 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1053" r:id="rId29" name="Check Box 29">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>361950</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>666750</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>104775</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1054" r:id="rId30" name="Check Box 30">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>361950</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>666750</xdr:colOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1055" r:id="rId31" name="Check Box 31">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>361950</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>666750</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1056" r:id="rId32" name="Check Box 32">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>361950</xdr:colOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>666750</xdr:colOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1057" r:id="rId33" name="Check Box 33">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>361950</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>666750</xdr:colOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1058" r:id="rId34" name="Check Box 34">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>361950</xdr:colOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>666750</xdr:colOff>
+                    <xdr:row>34</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1059" r:id="rId35" name="Check Box 35">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>361950</xdr:colOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>666750</xdr:colOff>
+                    <xdr:row>35</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1060" r:id="rId36" name="Check Box 36">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>361950</xdr:colOff>
+                    <xdr:row>34</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>666750</xdr:colOff>
+                    <xdr:row>36</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1061" r:id="rId37" name="Check Box 37">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>361950</xdr:colOff>
+                    <xdr:row>35</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>666750</xdr:colOff>
+                    <xdr:row>37</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1062" r:id="rId38" name="Check Box 38">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>361950</xdr:colOff>
+                    <xdr:row>36</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>666750</xdr:colOff>
+                    <xdr:row>38</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1063" r:id="rId39" name="Check Box 39">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>361950</xdr:colOff>
+                    <xdr:row>37</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>666750</xdr:colOff>
+                    <xdr:row>39</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1064" r:id="rId40" name="Check Box 40">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>361950</xdr:colOff>
+                    <xdr:row>38</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>666750</xdr:colOff>
+                    <xdr:row>40</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1065" r:id="rId41" name="Check Box 41">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>361950</xdr:colOff>
+                    <xdr:row>39</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>666750</xdr:colOff>
+                    <xdr:row>41</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
